--- a/pipeline/preds.xlsx
+++ b/pipeline/preds.xlsx
@@ -1094,7 +1094,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0.4395123292981183</v>
+        <v>0.4657436186506094</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1102,7 +1102,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>0.4395123292981183</v>
+        <v>0.4657436186506094</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1110,7 +1110,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0.4093167178009142</v>
+        <v>0.4355480071534052</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1118,7 +1118,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0.4004446111409078</v>
+        <v>0.4266759004933989</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1126,7 +1126,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>0.4004446111409078</v>
+        <v>0.4266759004933989</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1134,7 +1134,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0.4004446111409078</v>
+        <v>0.4266759004933989</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1142,7 +1142,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>0.4004446111409078</v>
+        <v>0.4266759004933989</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1150,7 +1150,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>0.4004446111409078</v>
+        <v>0.4266759004933989</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1158,7 +1158,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>0.4004446111409078</v>
+        <v>0.4266759004933989</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1166,7 +1166,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>0.3915769642963752</v>
+        <v>0.4178082536488663</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1174,7 +1174,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>0.3915769642963752</v>
+        <v>0.4178082536488663</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1182,7 +1182,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>0.3827174697069226</v>
+        <v>0.4089487590594136</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1238,7 +1238,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>0.3208586078595314</v>
+        <v>0.2952985745552511</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1246,7 +1246,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>0.3208586078595314</v>
+        <v>0.2952985745552511</v>
       </c>
     </row>
   </sheetData>
